--- a/biology/Zoologie/Hylodes_charadranaetes/Hylodes_charadranaetes.xlsx
+++ b/biology/Zoologie/Hylodes_charadranaetes/Hylodes_charadranaetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hylodes charadranaetes est une espèce d'amphibiens de la famille des Hylodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hylodes charadranaetes est une espèce d'amphibiens de la famille des Hylodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'État de Rio de Janeiro au Brésil. Elle se rencontre à Teresópolis, Cachoeiras de Macacu et Casimiro de Abreu[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'État de Rio de Janeiro au Brésil. Elle se rencontre à Teresópolis, Cachoeiras de Macacu et Casimiro de Abreu.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les spécimens adultes mâles observés lors de la description originale mesurent entre 31,3 mm et 34,7 mm de longueur standard et les spécimens adultes femelles observés lors de la description originale mesurent entre 31,9 mm et 37,7 mm de longueur standard[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spécimens adultes mâles observés lors de la description originale mesurent entre 31,3 mm et 34,7 mm de longueur standard et les spécimens adultes femelles observés lors de la description originale mesurent entre 31,9 mm et 37,7 mm de longueur standard.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique charadranaetes vient du grec charadra, le torrent de montagne, et de naetes, l'habitant, en référence à l'habitat de cette espèce[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique charadranaetes vient du grec charadra, le torrent de montagne, et de naetes, l'habitant, en référence à l'habitat de cette espèce.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Heyer &amp; Cocroft 1986 : Descriptions of two new species of Hylodes from the Atlantic forests of Brazil (Amphibia: Leptodactylidae). Proceedings of the Biological Society of Washington, vol. 99, no 1, p. 100-109 (texte intégral).</t>
         </is>
